--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80865.30422324958</v>
+        <v>-90432.97472641901</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33885565.57604097</v>
+        <v>33885565.57604096</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14019350.71637739</v>
+        <v>14019350.7163774</v>
       </c>
     </row>
     <row r="9">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>347.184969044142</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>411.0827424284143</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H18" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166521</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>49.60563018141139</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T18" t="n">
         <v>126.0091317304331</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>10.75849803923043</v>
+        <v>110.4550117262656</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,10 +2067,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>337.971062952814</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>308.537995143234</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>120.0908620689658</v>
       </c>
       <c r="C21" t="n">
         <v>105.3918965517241</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>49.60563018141139</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T21" t="n">
         <v>126.0091317304331</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>154.9729992674255</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>217.0195618216925</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>418.1856318563248</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="F23" t="n">
-        <v>371.5724976088932</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>329.8062372308943</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>122.7660251045348</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>219.2002323405431</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>382.3202739320326</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>333.0408303007368</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>69.83578017384922</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>147.1244401935913</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>52.61741380684735</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>301.8571805535588</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>272.6207125031721</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U29" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>191.6223797938343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.81976830925504</v>
       </c>
       <c r="H30" t="n">
-        <v>34.44698820166514</v>
+        <v>34.44698820166477</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>174.5263742585036</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586209</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W30" t="n">
         <v>183.4695267241379</v>
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>144.7856712859556</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>130.332683141201</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>319.0584609077548</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>10.3257014849036</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T33" t="n">
-        <v>126.0091317304331</v>
+        <v>126.0091317304328</v>
       </c>
       <c r="U33" t="n">
         <v>174.5263742585036</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.7377589422122</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6161358490523</v>
+        <v>72.35976669107411</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>389.0010885217068</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.3877867239918</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141161</v>
       </c>
       <c r="T36" t="n">
         <v>126.0091317304331</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>121.2764407881884</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>86.00026690488428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>346.76651973356</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>371.5724976088931</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>49.60563018141206</v>
+        <v>49.60563018141188</v>
       </c>
       <c r="T39" t="n">
         <v>126.0091317304331</v>
@@ -3678,7 +3678,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H40" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>123.5164527612914</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.27365533917393</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="D41" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>218.7217055610616</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.0456433386444</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>107.0128175691104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>153.3845382654631</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T43" t="n">
-        <v>135.902827210376</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>333.2025996511603</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>327.8695997971286</v>
       </c>
     </row>
     <row r="45">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>11.91109371561663</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>132.5387895244278</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>848.7446094156427</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C17" t="n">
-        <v>848.7446094156427</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D17" t="n">
-        <v>848.7446094156427</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E17" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F17" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G17" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H17" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524188</v>
       </c>
       <c r="J17" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073324</v>
       </c>
       <c r="K17" t="n">
-        <v>362.9849282099029</v>
+        <v>362.9849282099026</v>
       </c>
       <c r="L17" t="n">
         <v>570.7285396968684</v>
       </c>
       <c r="M17" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N17" t="n">
         <v>1036.7784573317</v>
@@ -5536,31 +5536,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q17" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="W17" t="n">
-        <v>1267.887072836332</v>
+        <v>1214.842591320031</v>
       </c>
       <c r="X17" t="n">
-        <v>848.7446094156427</v>
+        <v>1214.842591320031</v>
       </c>
       <c r="Y17" t="n">
-        <v>848.7446094156427</v>
+        <v>806.5564676196847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C18" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F18" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>68.2497881259456</v>
       </c>
       <c r="H18" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J18" t="n">
-        <v>150.315549862265</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>264.0535687076973</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L18" t="n">
-        <v>416.9883711887014</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M18" t="n">
-        <v>595.456072215418</v>
+        <v>920.0143971816304</v>
       </c>
       <c r="N18" t="n">
-        <v>778.6472822410933</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O18" t="n">
-        <v>946.2314501067034</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P18" t="n">
-        <v>1097.834127233838</v>
+        <v>1405.29084426629</v>
       </c>
       <c r="Q18" t="n">
         <v>1511.8379027716</v>
@@ -5624,7 +5624,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T18" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U18" t="n">
         <v>1319.064612101715</v>
@@ -5633,13 +5633,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W18" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X18" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>249.4086320118782</v>
+        <v>494.2943350189447</v>
       </c>
       <c r="C19" t="n">
-        <v>249.4086320118782</v>
+        <v>321.7326235021696</v>
       </c>
       <c r="D19" t="n">
-        <v>249.4086320118782</v>
+        <v>321.7326235021696</v>
       </c>
       <c r="E19" t="n">
-        <v>249.4086320118782</v>
+        <v>321.7326235021696</v>
       </c>
       <c r="F19" t="n">
-        <v>249.4086320118782</v>
+        <v>145.0255694639258</v>
       </c>
       <c r="G19" t="n">
-        <v>238.5414622752818</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H19" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I19" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.20378455015356</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K19" t="n">
-        <v>143.8101078806224</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L19" t="n">
-        <v>304.3051044129576</v>
+        <v>919.1520231542094</v>
       </c>
       <c r="M19" t="n">
-        <v>718.308879950719</v>
+        <v>1011.716877081226</v>
       </c>
       <c r="N19" t="n">
-        <v>1132.31265548848</v>
+        <v>1102.08074567448</v>
       </c>
       <c r="O19" t="n">
-        <v>1546.316431026242</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P19" t="n">
-        <v>1617.735720978398</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
         <v>1667.182735391305</v>
@@ -5703,22 +5703,22 @@
         <v>1524.001055161996</v>
       </c>
       <c r="T19" t="n">
-        <v>1524.001055161996</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U19" t="n">
-        <v>1245.600917940731</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="V19" t="n">
-        <v>958.6454098111612</v>
+        <v>993.7404101185448</v>
       </c>
       <c r="W19" t="n">
-        <v>686.6190053974528</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="X19" t="n">
-        <v>441.2272507308653</v>
+        <v>721.7140057048364</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.2272507308653</v>
+        <v>494.2943350189447</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>708.8839731275193</v>
+        <v>731.2390367702202</v>
       </c>
       <c r="C20" t="n">
-        <v>708.8839731275193</v>
+        <v>731.2390367702202</v>
       </c>
       <c r="D20" t="n">
-        <v>708.8839731275193</v>
+        <v>731.2390367702202</v>
       </c>
       <c r="E20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="F20" t="n">
-        <v>708.8839731275193</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="G20" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H20" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.79828774524185</v>
+        <v>83.79828774524222</v>
       </c>
       <c r="J20" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073328</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099026</v>
+        <v>362.9849282099031</v>
       </c>
       <c r="L20" t="n">
-        <v>570.7285396968683</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847199</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
-        <v>1036.778457331699</v>
+        <v>1036.7784573317</v>
       </c>
       <c r="O20" t="n">
-        <v>1258.583260144775</v>
+        <v>1258.583260144776</v>
       </c>
       <c r="P20" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T20" t="n">
-        <v>1458.555008901415</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U20" t="n">
-        <v>1458.555008901415</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V20" t="n">
-        <v>1458.555008901415</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W20" t="n">
-        <v>1458.555008901415</v>
+        <v>731.2390367702202</v>
       </c>
       <c r="X20" t="n">
-        <v>1458.555008901415</v>
+        <v>731.2390367702202</v>
       </c>
       <c r="Y20" t="n">
-        <v>1050.268885201069</v>
+        <v>731.2390367702202</v>
       </c>
     </row>
     <row r="21">
@@ -5813,70 +5813,70 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F21" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H21" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>83.769371087529</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J21" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631993</v>
       </c>
       <c r="L21" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442035</v>
       </c>
       <c r="M21" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709199</v>
       </c>
       <c r="N21" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O21" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P21" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q21" t="n">
-        <v>1511.8379027716</v>
+        <v>1511.837902771601</v>
       </c>
       <c r="R21" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S21" t="n">
         <v>1622.635830272358</v>
       </c>
       <c r="T21" t="n">
-        <v>1495.353879029496</v>
+        <v>1495.353879029497</v>
       </c>
       <c r="U21" t="n">
         <v>1319.064612101715</v>
       </c>
       <c r="V21" t="n">
-        <v>1119.947094163714</v>
+        <v>1119.947094163715</v>
       </c>
       <c r="W21" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969086</v>
       </c>
       <c r="X21" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357885</v>
       </c>
       <c r="Y21" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150093</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.9008047460621</v>
+        <v>832.7363613434093</v>
       </c>
       <c r="C22" t="n">
-        <v>616.3390932292871</v>
+        <v>660.1746498266342</v>
       </c>
       <c r="D22" t="n">
-        <v>450.4611004308097</v>
+        <v>494.2966570281569</v>
       </c>
       <c r="E22" t="n">
-        <v>280.703096681547</v>
+        <v>324.5386532788942</v>
       </c>
       <c r="F22" t="n">
-        <v>103.9960426433032</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="G22" t="n">
-        <v>103.9960426433032</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H22" t="n">
-        <v>103.9960426433032</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="I22" t="n">
-        <v>33.45485054850597</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
         <v>161.7834697148434</v>
@@ -5916,46 +5916,46 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L22" t="n">
-        <v>592.940721149037</v>
+        <v>919.1520231542095</v>
       </c>
       <c r="M22" t="n">
-        <v>685.5055750760537</v>
+        <v>1011.716877081226</v>
       </c>
       <c r="N22" t="n">
-        <v>775.8694436693074</v>
+        <v>1102.08074567448</v>
       </c>
       <c r="O22" t="n">
-        <v>1035.539170576304</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P22" t="n">
         <v>1449.542946114066</v>
       </c>
       <c r="Q22" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R22" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S22" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="T22" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="U22" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161997</v>
       </c>
       <c r="W22" t="n">
-        <v>1453.530848817529</v>
+        <v>1251.974650748288</v>
       </c>
       <c r="X22" t="n">
-        <v>1208.139094150941</v>
+        <v>1251.974650748288</v>
       </c>
       <c r="Y22" t="n">
-        <v>980.7194234650492</v>
+        <v>1024.554980062396</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>831.1903348568071</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="C23" t="n">
-        <v>408.7806057090042</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="D23" t="n">
-        <v>408.7806057090042</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="E23" t="n">
-        <v>408.7806057090042</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F23" t="n">
         <v>33.45485054850599</v>
@@ -5986,19 +5986,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I23" t="n">
-        <v>83.79828774524233</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J23" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K23" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L23" t="n">
-        <v>570.7285396968689</v>
+        <v>570.7285396968687</v>
       </c>
       <c r="M23" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847202</v>
       </c>
       <c r="N23" t="n">
         <v>1036.7784573317</v>
@@ -6010,31 +6010,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q23" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R23" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U23" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V23" t="n">
-        <v>1672.742527425299</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="W23" t="n">
-        <v>1672.742527425299</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="X23" t="n">
-        <v>1253.60006400461</v>
+        <v>1286.560432544458</v>
       </c>
       <c r="Y23" t="n">
-        <v>1253.60006400461</v>
+        <v>878.2743088441118</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C24" t="n">
-        <v>425.5107626718881</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D24" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E24" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F24" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G24" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594554</v>
       </c>
       <c r="H24" t="n">
         <v>33.45485054850599</v>
@@ -6071,22 +6071,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K24" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L24" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M24" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N24" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O24" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P24" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q24" t="n">
         <v>1511.8379027716</v>
@@ -6110,10 +6110,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X24" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y24" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>883.3483896555588</v>
+        <v>492.2077172662392</v>
       </c>
       <c r="C25" t="n">
-        <v>710.7866781387837</v>
+        <v>492.2077172662392</v>
       </c>
       <c r="D25" t="n">
-        <v>544.9086853403064</v>
+        <v>492.2077172662392</v>
       </c>
       <c r="E25" t="n">
-        <v>375.1506815910436</v>
+        <v>322.4497135169764</v>
       </c>
       <c r="F25" t="n">
-        <v>198.4436275527998</v>
+        <v>322.4497135169764</v>
       </c>
       <c r="G25" t="n">
-        <v>33.45485054850599</v>
+        <v>157.4609365126826</v>
       </c>
       <c r="H25" t="n">
         <v>33.45485054850599</v>
@@ -6153,13 +6153,13 @@
         <v>505.1482476164479</v>
       </c>
       <c r="L25" t="n">
-        <v>769.144789594209</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M25" t="n">
-        <v>861.7096435212256</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N25" t="n">
-        <v>952.0735121144794</v>
+        <v>775.8694436693075</v>
       </c>
       <c r="O25" t="n">
         <v>1035.539170576305</v>
@@ -6183,16 +6183,16 @@
         <v>1524.001055161996</v>
       </c>
       <c r="V25" t="n">
-        <v>1524.001055161996</v>
+        <v>1237.045547032427</v>
       </c>
       <c r="W25" t="n">
-        <v>1524.001055161996</v>
+        <v>965.0191426187184</v>
       </c>
       <c r="X25" t="n">
-        <v>1302.586679060438</v>
+        <v>719.6273879521309</v>
       </c>
       <c r="Y25" t="n">
-        <v>1075.167008374546</v>
+        <v>492.2077172662392</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.45485054850599</v>
+        <v>1264.456403724953</v>
       </c>
       <c r="C26" t="n">
-        <v>33.45485054850599</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="D26" t="n">
-        <v>33.45485054850599</v>
+        <v>878.2743088441118</v>
       </c>
       <c r="E26" t="n">
-        <v>33.45485054850599</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="F26" t="n">
         <v>33.45485054850599</v>
@@ -6223,19 +6223,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I26" t="n">
-        <v>83.79828774524243</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J26" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073327</v>
       </c>
       <c r="K26" t="n">
-        <v>362.9849282099033</v>
+        <v>362.984928209903</v>
       </c>
       <c r="L26" t="n">
-        <v>570.7285396968691</v>
+        <v>570.7285396968689</v>
       </c>
       <c r="M26" t="n">
-        <v>801.8833353847207</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N26" t="n">
         <v>1036.7784573317</v>
@@ -6247,31 +6247,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q26" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R26" t="n">
         <v>1672.742527425299</v>
       </c>
       <c r="S26" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T26" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U26" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V26" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W26" t="n">
-        <v>1283.293166817345</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X26" t="n">
-        <v>864.1507033966554</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="Y26" t="n">
-        <v>455.8645796963089</v>
+        <v>1264.456403724953</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>531.9672238352457</v>
+        <v>531.9672238352458</v>
       </c>
       <c r="C27" t="n">
-        <v>425.510762671888</v>
+        <v>425.5107626718881</v>
       </c>
       <c r="D27" t="n">
-        <v>330.4204738184412</v>
+        <v>330.4204738184413</v>
       </c>
       <c r="E27" t="n">
-        <v>236.3000591453949</v>
+        <v>236.300059145395</v>
       </c>
       <c r="F27" t="n">
-        <v>152.9162207615565</v>
+        <v>152.9162207615567</v>
       </c>
       <c r="G27" t="n">
         <v>68.24978812594551</v>
@@ -6308,22 +6308,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K27" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L27" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M27" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N27" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O27" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P27" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q27" t="n">
         <v>1511.8379027716</v>
@@ -6347,10 +6347,10 @@
         <v>934.6243398969082</v>
       </c>
       <c r="X27" t="n">
-        <v>779.7569041357881</v>
+        <v>779.7569041357882</v>
       </c>
       <c r="Y27" t="n">
-        <v>653.2711249150088</v>
+        <v>653.271124915009</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.435001382335</v>
+        <v>439.6320391910432</v>
       </c>
       <c r="C28" t="n">
-        <v>915.8732898655595</v>
+        <v>439.6320391910432</v>
       </c>
       <c r="D28" t="n">
-        <v>749.9952970670822</v>
+        <v>273.7540463925659</v>
       </c>
       <c r="E28" t="n">
-        <v>580.2372933178194</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="F28" t="n">
-        <v>403.5302392795757</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G28" t="n">
-        <v>238.5414622752818</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H28" t="n">
         <v>103.9960426433032</v>
@@ -6384,25 +6384,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J28" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K28" t="n">
-        <v>143.8101078806224</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L28" t="n">
-        <v>557.8138834183841</v>
+        <v>644.3935685830738</v>
       </c>
       <c r="M28" t="n">
-        <v>718.3088799507193</v>
+        <v>1058.397344120835</v>
       </c>
       <c r="N28" t="n">
-        <v>1132.312655488481</v>
+        <v>1294.657997700085</v>
       </c>
       <c r="O28" t="n">
-        <v>1546.316431026242</v>
+        <v>1378.12365616191</v>
       </c>
       <c r="P28" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q28" t="n">
         <v>1667.182735391305</v>
@@ -6411,25 +6411,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S28" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T28" t="n">
-        <v>1375.390509511904</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="U28" t="n">
-        <v>1375.390509511904</v>
+        <v>1429.437390511417</v>
       </c>
       <c r="V28" t="n">
-        <v>1088.435001382335</v>
+        <v>1376.288487676218</v>
       </c>
       <c r="W28" t="n">
-        <v>1088.435001382335</v>
+        <v>1104.26208326251</v>
       </c>
       <c r="X28" t="n">
-        <v>1088.435001382335</v>
+        <v>858.870328595922</v>
       </c>
       <c r="Y28" t="n">
-        <v>1088.435001382335</v>
+        <v>631.4506579100303</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.45485054850599</v>
+        <v>1036.145279753613</v>
       </c>
       <c r="C29" t="n">
-        <v>33.45485054850599</v>
+        <v>613.73555060581</v>
       </c>
       <c r="D29" t="n">
-        <v>33.45485054850599</v>
+        <v>613.73555060581</v>
       </c>
       <c r="E29" t="n">
-        <v>33.45485054850599</v>
+        <v>613.73555060581</v>
       </c>
       <c r="F29" t="n">
-        <v>33.45485054850599</v>
+        <v>613.73555060581</v>
       </c>
       <c r="G29" t="n">
-        <v>33.45485054850599</v>
+        <v>308.8293076224172</v>
       </c>
       <c r="H29" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I29" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524205</v>
       </c>
       <c r="J29" t="n">
-        <v>195.5292216073327</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K29" t="n">
-        <v>362.9849282099031</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L29" t="n">
-        <v>570.7285396968688</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M29" t="n">
-        <v>801.8833353847205</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N29" t="n">
         <v>1036.7784573317</v>
@@ -6484,7 +6484,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q29" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R29" t="n">
         <v>1672.742527425299</v>
@@ -6493,22 +6493,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T29" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U29" t="n">
-        <v>1413.627678012047</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V29" t="n">
-        <v>1051.010727945873</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="W29" t="n">
-        <v>646.1552733569067</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="X29" t="n">
-        <v>227.0128099362174</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="Y29" t="n">
-        <v>33.45485054850599</v>
+        <v>1458.555008901416</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352455</v>
       </c>
       <c r="C30" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718877</v>
       </c>
       <c r="D30" t="n">
-        <v>330.4204738184413</v>
+        <v>330.420473818441</v>
       </c>
       <c r="E30" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453947</v>
       </c>
       <c r="F30" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615563</v>
       </c>
       <c r="G30" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594514</v>
       </c>
       <c r="H30" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I30" t="n">
         <v>83.76937108752902</v>
@@ -6545,22 +6545,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K30" t="n">
-        <v>605.2485493631989</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L30" t="n">
-        <v>758.183351844203</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M30" t="n">
-        <v>936.6510528709194</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N30" t="n">
-        <v>1119.842262896595</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O30" t="n">
-        <v>1287.426430762205</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P30" t="n">
-        <v>1421.927499955578</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q30" t="n">
         <v>1511.8379027716</v>
@@ -6572,7 +6572,7 @@
         <v>1622.635830272358</v>
       </c>
       <c r="T30" t="n">
-        <v>1495.353879029497</v>
+        <v>1495.353879029496</v>
       </c>
       <c r="U30" t="n">
         <v>1319.064612101715</v>
@@ -6581,13 +6581,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W30" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969079</v>
       </c>
       <c r="X30" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357879</v>
       </c>
       <c r="Y30" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150086</v>
       </c>
     </row>
     <row r="31">
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>206.0165620652811</v>
+        <v>416.1221882558771</v>
       </c>
       <c r="C31" t="n">
-        <v>33.45485054850599</v>
+        <v>416.1221882558771</v>
       </c>
       <c r="D31" t="n">
-        <v>33.45485054850599</v>
+        <v>250.2441954573998</v>
       </c>
       <c r="E31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="F31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="G31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="H31" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J31" t="n">
         <v>161.7834697148434</v>
       </c>
       <c r="K31" t="n">
-        <v>230.3897930453123</v>
+        <v>505.1482476164479</v>
       </c>
       <c r="L31" t="n">
-        <v>318.1822665779014</v>
+        <v>592.940721149037</v>
       </c>
       <c r="M31" t="n">
-        <v>732.1860421156629</v>
+        <v>685.5055750760537</v>
       </c>
       <c r="N31" t="n">
-        <v>1146.189817653424</v>
+        <v>775.8694436693074</v>
       </c>
       <c r="O31" t="n">
-        <v>1229.65547611525</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P31" t="n">
         <v>1449.542946114066</v>
@@ -6648,25 +6648,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T31" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U31" t="n">
-        <v>1002.295781026849</v>
+        <v>1394.342390204034</v>
       </c>
       <c r="V31" t="n">
-        <v>1002.295781026849</v>
+        <v>1107.386882074464</v>
       </c>
       <c r="W31" t="n">
-        <v>870.6466061367474</v>
+        <v>835.360477660756</v>
       </c>
       <c r="X31" t="n">
-        <v>625.2548514701599</v>
+        <v>835.360477660756</v>
       </c>
       <c r="Y31" t="n">
-        <v>397.8351807842682</v>
+        <v>607.9408069748642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1200.555582488309</v>
+        <v>443.9395175535107</v>
       </c>
       <c r="C32" t="n">
-        <v>778.1458533405057</v>
+        <v>443.9395175535107</v>
       </c>
       <c r="D32" t="n">
-        <v>355.7361241927028</v>
+        <v>443.9395175535107</v>
       </c>
       <c r="E32" t="n">
-        <v>33.45485054850599</v>
+        <v>443.9395175535107</v>
       </c>
       <c r="F32" t="n">
-        <v>33.45485054850599</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H32" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I32" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J32" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K32" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L32" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968684</v>
       </c>
       <c r="M32" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N32" t="n">
         <v>1036.7784573317</v>
@@ -6736,16 +6736,16 @@
         <v>1619.698045908998</v>
       </c>
       <c r="V32" t="n">
-        <v>1619.698045908998</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W32" t="n">
-        <v>1619.698045908998</v>
+        <v>852.2256412538572</v>
       </c>
       <c r="X32" t="n">
-        <v>1200.555582488309</v>
+        <v>852.2256412538572</v>
       </c>
       <c r="Y32" t="n">
-        <v>1200.555582488309</v>
+        <v>443.9395175535107</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H33" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I33" t="n">
-        <v>83.76937108752902</v>
+        <v>57.70569792707141</v>
       </c>
       <c r="J33" t="n">
-        <v>474.8738748284774</v>
+        <v>124.2518767018075</v>
       </c>
       <c r="K33" t="n">
-        <v>588.6118936739097</v>
+        <v>538.2556522395689</v>
       </c>
       <c r="L33" t="n">
-        <v>741.5466961549138</v>
+        <v>691.190454720573</v>
       </c>
       <c r="M33" t="n">
-        <v>920.0143971816303</v>
+        <v>869.6581557472896</v>
       </c>
       <c r="N33" t="n">
-        <v>1103.205607207306</v>
+        <v>1052.849365772965</v>
       </c>
       <c r="O33" t="n">
-        <v>1270.789775072916</v>
+        <v>1220.433533638575</v>
       </c>
       <c r="P33" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q33" t="n">
         <v>1511.8379027716</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>346.6635860802869</v>
+        <v>376.0398973852271</v>
       </c>
       <c r="C34" t="n">
-        <v>346.6635860802869</v>
+        <v>376.0398973852271</v>
       </c>
       <c r="D34" t="n">
-        <v>346.6635860802869</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="E34" t="n">
-        <v>346.6635860802869</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F34" t="n">
-        <v>198.4436275527998</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I34" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J34" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K34" t="n">
-        <v>505.1482476164479</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L34" t="n">
-        <v>769.144789594209</v>
+        <v>304.3051044129574</v>
       </c>
       <c r="M34" t="n">
-        <v>861.7096435212256</v>
+        <v>718.3088799507188</v>
       </c>
       <c r="N34" t="n">
-        <v>952.0735121144794</v>
+        <v>1132.31265548848</v>
       </c>
       <c r="O34" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P34" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q34" t="n">
         <v>1667.182735391305</v>
@@ -6888,22 +6888,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T34" t="n">
-        <v>1429.437390511417</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U34" t="n">
-        <v>1151.037253290152</v>
+        <v>1599.651853999972</v>
       </c>
       <c r="V34" t="n">
-        <v>864.0817451605828</v>
+        <v>1312.696345870402</v>
       </c>
       <c r="W34" t="n">
-        <v>592.0553407468744</v>
+        <v>1040.669941456694</v>
       </c>
       <c r="X34" t="n">
-        <v>346.6635860802869</v>
+        <v>795.278186790106</v>
       </c>
       <c r="Y34" t="n">
-        <v>346.6635860802869</v>
+        <v>567.8585161042142</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33.45485054850599</v>
+        <v>455.8645796963088</v>
       </c>
       <c r="C35" t="n">
-        <v>33.45485054850599</v>
+        <v>455.8645796963088</v>
       </c>
       <c r="D35" t="n">
-        <v>33.45485054850599</v>
+        <v>455.8645796963088</v>
       </c>
       <c r="E35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="F35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="G35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H35" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I35" t="n">
-        <v>83.79828774524189</v>
+        <v>83.79828774524199</v>
       </c>
       <c r="J35" t="n">
-        <v>195.5292216073325</v>
+        <v>195.5292216073326</v>
       </c>
       <c r="K35" t="n">
-        <v>362.9849282099028</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L35" t="n">
-        <v>570.7285396968684</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M35" t="n">
         <v>801.8833353847201</v>
@@ -6964,25 +6964,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S35" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T35" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="U35" t="n">
-        <v>1413.627678012047</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="V35" t="n">
-        <v>1051.010727945873</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="W35" t="n">
-        <v>646.1552733569067</v>
+        <v>1257.081095842824</v>
       </c>
       <c r="X35" t="n">
-        <v>646.1552733569067</v>
+        <v>864.1507033966554</v>
       </c>
       <c r="Y35" t="n">
-        <v>455.8645796963089</v>
+        <v>455.8645796963088</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H36" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I36" t="n">
         <v>83.76937108752902</v>
@@ -7019,13 +7019,13 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K36" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631987</v>
       </c>
       <c r="L36" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442028</v>
       </c>
       <c r="M36" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N36" t="n">
         <v>1119.842262896595</v>
@@ -7034,7 +7034,7 @@
         <v>1287.426430762205</v>
       </c>
       <c r="P36" t="n">
-        <v>1421.927499955579</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q36" t="n">
         <v>1511.8379027716</v>
@@ -7089,31 +7089,31 @@
         <v>168.0002701804846</v>
       </c>
       <c r="H37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I37" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J37" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K37" t="n">
-        <v>230.3897930453123</v>
+        <v>143.8101078806224</v>
       </c>
       <c r="L37" t="n">
-        <v>318.1822665779014</v>
+        <v>557.8138834183839</v>
       </c>
       <c r="M37" t="n">
-        <v>410.7471205049181</v>
+        <v>971.8176589561454</v>
       </c>
       <c r="N37" t="n">
-        <v>621.5353950385432</v>
+        <v>1385.821434493907</v>
       </c>
       <c r="O37" t="n">
-        <v>1035.539170576305</v>
+        <v>1546.316431026242</v>
       </c>
       <c r="P37" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978398</v>
       </c>
       <c r="Q37" t="n">
         <v>1667.182735391305</v>
@@ -7122,25 +7122,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T37" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U37" t="n">
-        <v>1524.001055161996</v>
+        <v>1550.241072083694</v>
       </c>
       <c r="V37" t="n">
-        <v>1524.001055161996</v>
+        <v>1263.285563954125</v>
       </c>
       <c r="W37" t="n">
-        <v>1524.001055161996</v>
+        <v>1263.285563954125</v>
       </c>
       <c r="X37" t="n">
-        <v>1437.132098692416</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.712428006525</v>
+        <v>1017.893809287537</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>433.509516053608</v>
+        <v>455.8645796963089</v>
       </c>
       <c r="C38" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D38" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E38" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F38" t="n">
-        <v>433.509516053608</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G38" t="n">
         <v>33.45485054850599</v>
@@ -7171,19 +7171,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I38" t="n">
-        <v>83.79828774524186</v>
+        <v>83.7982877452425</v>
       </c>
       <c r="J38" t="n">
-        <v>195.5292216073324</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K38" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L38" t="n">
-        <v>570.7285396968684</v>
+        <v>570.728539696869</v>
       </c>
       <c r="M38" t="n">
-        <v>801.8833353847201</v>
+        <v>801.8833353847206</v>
       </c>
       <c r="N38" t="n">
         <v>1036.7784573317</v>
@@ -7201,25 +7201,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S38" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T38" t="n">
-        <v>1405.510527385115</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U38" t="n">
-        <v>1146.395677971862</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V38" t="n">
-        <v>783.7787279056888</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W38" t="n">
-        <v>433.509516053608</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="X38" t="n">
-        <v>433.509516053608</v>
+        <v>1253.60006400461</v>
       </c>
       <c r="Y38" t="n">
-        <v>433.509516053608</v>
+        <v>878.2743088441118</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>531.9672238352458</v>
+        <v>531.9672238352459</v>
       </c>
       <c r="C39" t="n">
-        <v>425.5107626718881</v>
+        <v>425.5107626718882</v>
       </c>
       <c r="D39" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184415</v>
       </c>
       <c r="E39" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453952</v>
       </c>
       <c r="F39" t="n">
-        <v>152.9162207615567</v>
+        <v>152.9162207615568</v>
       </c>
       <c r="G39" t="n">
         <v>68.24978812594551</v>
@@ -7256,22 +7256,22 @@
         <v>474.8738748284774</v>
       </c>
       <c r="K39" t="n">
-        <v>588.6118936739097</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L39" t="n">
-        <v>741.5466961549138</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M39" t="n">
-        <v>920.0143971816303</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N39" t="n">
-        <v>1103.205607207306</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O39" t="n">
-        <v>1270.789775072916</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P39" t="n">
-        <v>1405.290844266289</v>
+        <v>1421.927499955579</v>
       </c>
       <c r="Q39" t="n">
         <v>1511.8379027716</v>
@@ -7292,13 +7292,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W39" t="n">
-        <v>934.6243398969082</v>
+        <v>934.6243398969084</v>
       </c>
       <c r="X39" t="n">
-        <v>779.7569041357882</v>
+        <v>779.7569041357883</v>
       </c>
       <c r="Y39" t="n">
-        <v>653.271124915009</v>
+        <v>653.2711249150091</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1017.893809287537</v>
+        <v>883.3483896555588</v>
       </c>
       <c r="C40" t="n">
-        <v>845.3320977707623</v>
+        <v>710.7866781387837</v>
       </c>
       <c r="D40" t="n">
-        <v>679.454104972285</v>
+        <v>544.9086853403064</v>
       </c>
       <c r="E40" t="n">
-        <v>509.6961012230222</v>
+        <v>375.1506815910436</v>
       </c>
       <c r="F40" t="n">
-        <v>332.9890471847784</v>
+        <v>198.4436275527998</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="H40" t="n">
         <v>33.45485054850599</v>
@@ -7332,25 +7332,25 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J40" t="n">
-        <v>161.7834697148434</v>
+        <v>75.20378455015359</v>
       </c>
       <c r="K40" t="n">
-        <v>367.1873825661164</v>
+        <v>418.568562451758</v>
       </c>
       <c r="L40" t="n">
-        <v>781.1911581038779</v>
+        <v>832.5723379895196</v>
       </c>
       <c r="M40" t="n">
-        <v>873.7560120308947</v>
+        <v>925.1371919165364</v>
       </c>
       <c r="N40" t="n">
-        <v>964.1198806241485</v>
+        <v>1015.50106050979</v>
       </c>
       <c r="O40" t="n">
-        <v>1378.12365616191</v>
+        <v>1429.504836047552</v>
       </c>
       <c r="P40" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q40" t="n">
         <v>1667.182735391305</v>
@@ -7359,25 +7359,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T40" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U40" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V40" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.695918248114</v>
+        <v>1547.978433727025</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.695918248114</v>
+        <v>1302.586679060438</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.712428006525</v>
+        <v>1075.167008374546</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>878.2743088441117</v>
+        <v>676.7955954145528</v>
       </c>
       <c r="C41" t="n">
-        <v>455.8645796963089</v>
+        <v>254.38586626675</v>
       </c>
       <c r="D41" t="n">
-        <v>33.45485054850598</v>
+        <v>254.38586626675</v>
       </c>
       <c r="E41" t="n">
         <v>33.45485054850598</v>
@@ -7408,19 +7408,19 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I41" t="n">
-        <v>83.79828774524186</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J41" t="n">
-        <v>195.5292216073324</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K41" t="n">
-        <v>362.9849282099027</v>
+        <v>362.9849282099028</v>
       </c>
       <c r="L41" t="n">
         <v>570.7285396968684</v>
       </c>
       <c r="M41" t="n">
-        <v>801.88333538472</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N41" t="n">
         <v>1036.7784573317</v>
@@ -7438,25 +7438,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S41" t="n">
-        <v>1619.698045908998</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T41" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U41" t="n">
-        <v>1405.510527385115</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V41" t="n">
-        <v>1405.510527385115</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="W41" t="n">
-        <v>1405.510527385115</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="X41" t="n">
-        <v>986.3680639644252</v>
+        <v>676.7955954145528</v>
       </c>
       <c r="Y41" t="n">
-        <v>878.2743088441117</v>
+        <v>676.7955954145528</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>33.45485054850598</v>
       </c>
       <c r="I42" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J42" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K42" t="n">
-        <v>562.5482205134522</v>
+        <v>605.2485493631991</v>
       </c>
       <c r="L42" t="n">
-        <v>715.4830229944563</v>
+        <v>758.1833518442032</v>
       </c>
       <c r="M42" t="n">
-        <v>893.9507240211728</v>
+        <v>936.6510528709197</v>
       </c>
       <c r="N42" t="n">
-        <v>1077.141934046848</v>
+        <v>1119.842262896595</v>
       </c>
       <c r="O42" t="n">
-        <v>1244.726101912458</v>
+        <v>1287.426430762205</v>
       </c>
       <c r="P42" t="n">
-        <v>1379.227171105832</v>
+        <v>1421.927499955578</v>
       </c>
       <c r="Q42" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R42" t="n">
         <v>1672.742527425299</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.45485054850598</v>
+        <v>826.3626285358521</v>
       </c>
       <c r="C43" t="n">
-        <v>33.45485054850598</v>
+        <v>653.800917019077</v>
       </c>
       <c r="D43" t="n">
-        <v>33.45485054850598</v>
+        <v>487.9229242205997</v>
       </c>
       <c r="E43" t="n">
-        <v>33.45485054850598</v>
+        <v>487.9229242205997</v>
       </c>
       <c r="F43" t="n">
-        <v>33.45485054850598</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G43" t="n">
-        <v>33.45485054850598</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H43" t="n">
         <v>33.45485054850598</v>
@@ -7569,22 +7569,22 @@
         <v>33.45485054850598</v>
       </c>
       <c r="J43" t="n">
-        <v>75.20378455015359</v>
+        <v>75.20378455015357</v>
       </c>
       <c r="K43" t="n">
         <v>143.8101078806224</v>
       </c>
       <c r="L43" t="n">
-        <v>304.3051044129576</v>
+        <v>231.6025814132115</v>
       </c>
       <c r="M43" t="n">
-        <v>718.3088799507191</v>
+        <v>645.6063569509729</v>
       </c>
       <c r="N43" t="n">
-        <v>1132.312655488481</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O43" t="n">
-        <v>1546.316431026242</v>
+        <v>1473.613908026496</v>
       </c>
       <c r="P43" t="n">
         <v>1617.735720978398</v>
@@ -7596,25 +7596,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S43" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T43" t="n">
-        <v>1535.466944384515</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="U43" t="n">
-        <v>1257.06680716325</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="V43" t="n">
-        <v>970.1112990336808</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="W43" t="n">
-        <v>698.0848946199724</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="X43" t="n">
-        <v>452.6931399533848</v>
+        <v>1245.600917940731</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.2734692674931</v>
+        <v>1018.181247254839</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1214.842591320031</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="C44" t="n">
-        <v>1214.842591320031</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="D44" t="n">
-        <v>1214.842591320031</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="E44" t="n">
-        <v>792.4328621722284</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F44" t="n">
-        <v>370.0231330244255</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G44" t="n">
         <v>33.45485054850599</v>
@@ -7648,16 +7648,16 @@
         <v>83.79828774524233</v>
       </c>
       <c r="J44" t="n">
-        <v>195.5292216073329</v>
+        <v>195.529221607333</v>
       </c>
       <c r="K44" t="n">
-        <v>362.9849282099032</v>
+        <v>362.9849282099033</v>
       </c>
       <c r="L44" t="n">
         <v>570.7285396968689</v>
       </c>
       <c r="M44" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N44" t="n">
         <v>1036.7784573317</v>
@@ -7666,7 +7666,7 @@
         <v>1258.583260144776</v>
       </c>
       <c r="P44" t="n">
-        <v>1447.888527710259</v>
+        <v>1447.88852771026</v>
       </c>
       <c r="Q44" t="n">
         <v>1590.048899840628</v>
@@ -7678,22 +7678,22 @@
         <v>1619.698045908998</v>
       </c>
       <c r="T44" t="n">
-        <v>1619.698045908998</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U44" t="n">
-        <v>1619.698045908998</v>
+        <v>1146.395677971862</v>
       </c>
       <c r="V44" t="n">
-        <v>1619.698045908998</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="W44" t="n">
-        <v>1214.842591320031</v>
+        <v>783.7787279056888</v>
       </c>
       <c r="X44" t="n">
-        <v>1214.842591320031</v>
+        <v>364.6362644849995</v>
       </c>
       <c r="Y44" t="n">
-        <v>1214.842591320031</v>
+        <v>33.45485054850599</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>531.9672238352459</v>
+        <v>531.9672238352457</v>
       </c>
       <c r="C45" t="n">
-        <v>425.5107626718882</v>
+        <v>425.510762671888</v>
       </c>
       <c r="D45" t="n">
-        <v>330.4204738184415</v>
+        <v>330.4204738184412</v>
       </c>
       <c r="E45" t="n">
-        <v>236.3000591453952</v>
+        <v>236.3000591453949</v>
       </c>
       <c r="F45" t="n">
-        <v>152.9162207615568</v>
+        <v>152.9162207615566</v>
       </c>
       <c r="G45" t="n">
         <v>68.24978812594554</v>
@@ -7724,31 +7724,31 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I45" t="n">
-        <v>57.70569792707142</v>
+        <v>83.76937108752902</v>
       </c>
       <c r="J45" t="n">
-        <v>448.8102016680198</v>
+        <v>474.8738748284774</v>
       </c>
       <c r="K45" t="n">
-        <v>562.5482205134522</v>
+        <v>588.6118936739097</v>
       </c>
       <c r="L45" t="n">
-        <v>715.4830229944563</v>
+        <v>741.5466961549138</v>
       </c>
       <c r="M45" t="n">
-        <v>893.9507240211728</v>
+        <v>920.0143971816303</v>
       </c>
       <c r="N45" t="n">
-        <v>1077.141934046848</v>
+        <v>1103.205607207306</v>
       </c>
       <c r="O45" t="n">
-        <v>1244.726101912458</v>
+        <v>1270.789775072916</v>
       </c>
       <c r="P45" t="n">
-        <v>1379.227171105832</v>
+        <v>1405.290844266289</v>
       </c>
       <c r="Q45" t="n">
-        <v>1629.01068086594</v>
+        <v>1511.8379027716</v>
       </c>
       <c r="R45" t="n">
         <v>1672.742527425299</v>
@@ -7766,13 +7766,13 @@
         <v>1119.947094163714</v>
       </c>
       <c r="W45" t="n">
-        <v>934.6243398969084</v>
+        <v>934.6243398969082</v>
       </c>
       <c r="X45" t="n">
-        <v>779.7569041357883</v>
+        <v>779.7569041357881</v>
       </c>
       <c r="Y45" t="n">
-        <v>653.2711249150091</v>
+        <v>653.2711249150088</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>344.0394697629395</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="C46" t="n">
-        <v>344.0394697629395</v>
+        <v>915.8732898655595</v>
       </c>
       <c r="D46" t="n">
-        <v>344.0394697629395</v>
+        <v>749.9952970670822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.0394697629395</v>
+        <v>580.2372933178194</v>
       </c>
       <c r="F46" t="n">
-        <v>167.3324157246957</v>
+        <v>403.5302392795757</v>
       </c>
       <c r="G46" t="n">
-        <v>33.45485054850599</v>
+        <v>238.5414622752818</v>
       </c>
       <c r="H46" t="n">
-        <v>33.45485054850599</v>
+        <v>103.9960426433032</v>
       </c>
       <c r="I46" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="J46" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K46" t="n">
-        <v>143.8101078806224</v>
+        <v>355.1410140564474</v>
       </c>
       <c r="L46" t="n">
-        <v>231.6025814132115</v>
+        <v>769.144789594209</v>
       </c>
       <c r="M46" t="n">
-        <v>645.6063569509731</v>
+        <v>861.7096435212256</v>
       </c>
       <c r="N46" t="n">
-        <v>952.0735121144792</v>
+        <v>952.0735121144794</v>
       </c>
       <c r="O46" t="n">
         <v>1035.539170576305</v>
@@ -7833,25 +7833,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S46" t="n">
-        <v>1524.001055161996</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="T46" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="U46" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="V46" t="n">
-        <v>1280.695918248114</v>
+        <v>1672.742527425299</v>
       </c>
       <c r="W46" t="n">
-        <v>1008.669513834406</v>
+        <v>1400.716123011591</v>
       </c>
       <c r="X46" t="n">
-        <v>763.2777591678184</v>
+        <v>1155.324368345003</v>
       </c>
       <c r="Y46" t="n">
-        <v>535.8580884819266</v>
+        <v>927.9046976591117</v>
       </c>
     </row>
   </sheetData>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>17.27435144824386</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.3670431532726</v>
+        <v>16.80470271645368</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>73.43689191893549</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M19" t="n">
-        <v>324.6857794047926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>326.9089969136441</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>333.8768859352887</v>
+        <v>194.5224767935401</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.80470271645348</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9564,7 +9564,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -9573,10 +9573,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>177.9839075203751</v>
+        <v>194.5224767935399</v>
       </c>
       <c r="P22" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>16.80470271645416</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>177.9839075203757</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>177.9839075203756</v>
       </c>
       <c r="P25" t="n">
         <v>346.0449349349549</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>329.5063656617905</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M28" t="n">
-        <v>68.61630566193787</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N28" t="n">
-        <v>326.9089969136442</v>
+        <v>147.3704898848439</v>
       </c>
       <c r="O28" t="n">
-        <v>333.8768859352889</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10193,25 +10193,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>16.80470271645368</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10272,22 +10272,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>324.6857794047927</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>177.9839075203753</v>
       </c>
       <c r="P31" t="n">
-        <v>149.9678586329899</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>303.2987441336659</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>67.66959305417163</v>
       </c>
       <c r="Q33" t="n">
-        <v>16.80470271645413</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>177.9839075203757</v>
+        <v>73.43689191893529</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P34" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645345</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>329.5063656617903</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N37" t="n">
-        <v>121.6408140811831</v>
+        <v>326.9089969136442</v>
       </c>
       <c r="O37" t="n">
-        <v>333.8768859352889</v>
+        <v>77.80741219243396</v>
       </c>
       <c r="P37" t="n">
-        <v>346.0449349349549</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>16.8047027164539</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>138.1793833543475</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>329.5063656617904</v>
+        <v>329.5063656617905</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>333.8768859352888</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>117.9915100794856</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>16.8047027164539</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>161.4879868122084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>73.43689191893544</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>324.6857794047927</v>
+        <v>324.6857794047926</v>
       </c>
       <c r="N43" t="n">
         <v>326.9089969136442</v>
       </c>
       <c r="O43" t="n">
-        <v>333.8768859352888</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>73.43689191893532</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.4879868122086</v>
+        <v>16.80470271645413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>126.0113343546819</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>329.5063656617904</v>
       </c>
       <c r="M46" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>218.2861480507599</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>346.0449349349548</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>74.85160573591673</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>18.35425496487346</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
         <v>272.6207125031721</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.0456433386444</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -23901,16 +23901,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>152.5803911950205</v>
+        <v>52.8838775079853</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.06551182724473</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23977,13 +23977,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>92.26890489984299</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>19.96698423043586</v>
       </c>
       <c r="G22" t="n">
         <v>163.3388892342509</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>69.83578017384922</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.8720855447433</v>
@@ -24189,10 +24189,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>52.28657854787892</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>15.57541623208607</v>
@@ -24214,10 +24214,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F23" t="n">
-        <v>52.01625768599115</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>396.054118850051</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>52.51403670113842</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>212.0456433386444</v>
@@ -24265,16 +24265,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>29.18454333461744</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>133.1999654356588</v>
+        <v>10.43394033112398</v>
       </c>
       <c r="I25" t="n">
         <v>69.83578017384922</v>
@@ -24423,13 +24423,13 @@
         <v>275.6161358490523</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>23.73760477937859</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>51.44077415637827</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696291</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>5.403123438559476</v>
       </c>
       <c r="G26" t="n">
         <v>396.054118850051</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T26" t="n">
         <v>212.0456433386444</v>
@@ -24505,10 +24505,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>67.76606974234022</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T28" t="n">
-        <v>93.74764535115196</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>231.4685392414265</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733953</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>396.054118850051</v>
+        <v>94.19693829649219</v>
       </c>
       <c r="H29" t="n">
-        <v>272.6207125031721</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T29" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.5808826695088</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>23.27475242581448</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -24858,7 +24858,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I31" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.9734572283704</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>15.57541623208607</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>110.3785364855329</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>413.2630538099807</v>
       </c>
       <c r="G32" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>272.6207125031721</v>
@@ -24976,16 +24976,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>28.20222455564914</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H34" t="n">
         <v>133.1999654356588</v>
@@ -25128,10 +25128,10 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.2563691579782</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.85094292373384</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25162,7 +25162,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696302</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.0456433386444</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>25.94995026477557</v>
       </c>
       <c r="Y35" t="n">
-        <v>215.8154757393513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T37" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6161358490523</v>
+        <v>154.3396950608639</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>156.9375702150374</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>3.85094292373384</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>15.57541623208607</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25405,7 +25405,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H38" t="n">
         <v>272.6207125031721</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.5237009191198</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>54.04038030951705</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>32.63076485444998</v>
       </c>
     </row>
     <row r="39">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I40" t="n">
         <v>69.83578017384922</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U40" t="n">
         <v>275.6161358490523</v>
@@ -25611,13 +25611,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>145.78968760828</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.8718186398589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>15.57541623208613</v>
+        <v>15.57541623208618</v>
       </c>
       <c r="D41" t="n">
-        <v>13.36505512097511</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>210.7152918322261</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>297.1904448942327</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>21.55544523239826</v>
       </c>
       <c r="G43" t="n">
-        <v>163.3388892342509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>69.83578017384922</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>104.9692583343673</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>5.403123438559476</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>62.85151919889074</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H44" t="n">
         <v>272.6207125031721</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.5237009191198</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>76.33366266621454</v>
       </c>
     </row>
     <row r="45">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>177.9893388161806</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>30.80009970982306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.83578017384922</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U46" t="n">
         <v>275.6161358490523</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340193.677012926</v>
+        <v>340193.6770129261</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>340193.677012926</v>
+        <v>340193.6770129261</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>340193.6770129261</v>
+        <v>340193.677012926</v>
       </c>
     </row>
     <row r="12">
@@ -26328,25 +26328,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>97378.78047220713</v>
+        <v>97378.78047220715</v>
       </c>
       <c r="H2" t="n">
-        <v>97378.78047220707</v>
+        <v>97378.78047220716</v>
       </c>
       <c r="I2" t="n">
         <v>97378.78047220713</v>
       </c>
       <c r="J2" t="n">
-        <v>97378.78047220715</v>
+        <v>97378.78047220713</v>
       </c>
       <c r="K2" t="n">
         <v>97378.78047220715</v>
       </c>
       <c r="L2" t="n">
-        <v>97378.78047220713</v>
+        <v>97378.78047220715</v>
       </c>
       <c r="M2" t="n">
-        <v>97378.78047220713</v>
+        <v>97378.78047220707</v>
       </c>
       <c r="N2" t="n">
         <v>97378.78047220712</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>371788.8610770355</v>
+        <v>371788.8610770357</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>11902.92322350585</v>
       </c>
       <c r="H4" t="n">
-        <v>11902.92322350585</v>
+        <v>11902.92322350586</v>
       </c>
       <c r="I4" t="n">
         <v>11902.92322350586</v>
       </c>
       <c r="J4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="K4" t="n">
         <v>11902.92322350585</v>
       </c>
       <c r="L4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="M4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="N4" t="n">
         <v>11902.92322350586</v>
       </c>
       <c r="O4" t="n">
-        <v>11902.92322350585</v>
+        <v>11902.92322350586</v>
       </c>
       <c r="P4" t="n">
-        <v>11902.92322350585</v>
+        <v>11902.92322350586</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="H5" t="n">
-        <v>32636.5026199642</v>
+        <v>32636.50261996421</v>
       </c>
       <c r="I5" t="n">
         <v>32636.50261996421</v>
@@ -26496,19 +26496,19 @@
         <v>32636.50261996421</v>
       </c>
       <c r="K5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="L5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="M5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="N5" t="n">
         <v>32636.50261996421</v>
       </c>
       <c r="O5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="P5" t="n">
         <v>32636.50261996421</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-318949.5064482984</v>
+        <v>-319681.2573700733</v>
       </c>
       <c r="H6" t="n">
-        <v>52839.35462873703</v>
+        <v>52107.60370696236</v>
       </c>
       <c r="I6" t="n">
-        <v>52839.35462873706</v>
+        <v>52107.60370696233</v>
       </c>
       <c r="J6" t="n">
-        <v>52839.35462873708</v>
+        <v>52107.60370696233</v>
       </c>
       <c r="K6" t="n">
-        <v>52839.35462873708</v>
+        <v>52107.60370696237</v>
       </c>
       <c r="L6" t="n">
-        <v>52839.35462873706</v>
+        <v>52107.60370696237</v>
       </c>
       <c r="M6" t="n">
-        <v>52839.35462873706</v>
+        <v>52107.60370696228</v>
       </c>
       <c r="N6" t="n">
-        <v>52839.35462873706</v>
+        <v>52107.60370696232</v>
       </c>
       <c r="O6" t="n">
-        <v>-47797.43586311932</v>
+        <v>-48529.18678489407</v>
       </c>
       <c r="P6" t="n">
-        <v>52839.35462873704</v>
+        <v>52107.60370696231</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>330.7713854632872</v>
+      </c>
+      <c r="H3" t="n">
+        <v>330.7713854632872</v>
+      </c>
+      <c r="I3" t="n">
+        <v>330.7713854632872</v>
+      </c>
+      <c r="J3" t="n">
+        <v>330.7713854632872</v>
+      </c>
+      <c r="K3" t="n">
         <v>330.7713854632871</v>
-      </c>
-      <c r="H3" t="n">
-        <v>330.7713854632871</v>
-      </c>
-      <c r="I3" t="n">
-        <v>330.7713854632871</v>
-      </c>
-      <c r="J3" t="n">
-        <v>330.7713854632871</v>
-      </c>
-      <c r="K3" t="n">
-        <v>330.7713854632872</v>
       </c>
       <c r="L3" t="n">
         <v>330.7713854632871</v>
       </c>
       <c r="M3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="N3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="O3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="P3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="I4" t="n">
         <v>418.1856318563248</v>
@@ -26816,19 +26816,19 @@
         <v>418.1856318563248</v>
       </c>
       <c r="K4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="L4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N4" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="P4" t="n">
         <v>418.1856318563248</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>418.1856318563248</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>418.1856318563247</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>418.1856318563246</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,31 +32226,31 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H17" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S17" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32332,22 +32332,22 @@
         <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305197</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S18" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H19" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R19" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T19" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J20" t="n">
         <v>112.8595291536268</v>
@@ -32478,13 +32478,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667434</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I21" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32572,10 +32572,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
@@ -32584,7 +32584,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
@@ -32633,25 +32633,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R22" t="n">
         <v>26.81959463117078</v>
@@ -32663,7 +32663,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I23" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536268</v>
@@ -32715,13 +32715,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O23" t="n">
         <v>224.0452553667434</v>
@@ -32733,13 +32733,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S23" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T23" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U23" t="n">
         <v>0.1063787370334189</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H24" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I24" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J24" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K24" t="n">
         <v>114.8868877226589</v>
@@ -32809,10 +32809,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R24" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S24" t="n">
         <v>13.21525299468887</v>
@@ -32821,7 +32821,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H25" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I25" t="n">
         <v>17.9375695592222</v>
@@ -32870,25 +32870,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K25" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L25" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M25" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R25" t="n">
         <v>26.81959463117078</v>
@@ -32900,7 +32900,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I26" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351108</v>
       </c>
       <c r="J26" t="n">
         <v>112.8595291536268</v>
@@ -32952,13 +32952,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O26" t="n">
         <v>224.0452553667434</v>
@@ -32970,13 +32970,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219384</v>
       </c>
       <c r="S26" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T26" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047394</v>
       </c>
       <c r="U26" t="n">
         <v>0.1063787370334189</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229196</v>
       </c>
       <c r="H27" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284514</v>
       </c>
       <c r="I27" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J27" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K27" t="n">
         <v>114.8868877226589</v>
@@ -33046,10 +33046,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.81858870305197</v>
+        <v>90.81858870305199</v>
       </c>
       <c r="R27" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S27" t="n">
         <v>13.21525299468887</v>
@@ -33058,7 +33058,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782368</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796981</v>
       </c>
       <c r="H28" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870411</v>
       </c>
       <c r="I28" t="n">
         <v>17.9375695592222</v>
@@ -33107,25 +33107,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K28" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L28" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453441</v>
       </c>
       <c r="M28" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153212</v>
       </c>
       <c r="N28" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268059</v>
       </c>
       <c r="O28" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103591</v>
       </c>
       <c r="P28" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137001</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495636</v>
       </c>
       <c r="R28" t="n">
         <v>26.81959463117078</v>
@@ -33137,7 +33137,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I29" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J29" t="n">
         <v>112.8595291536268</v>
@@ -33189,13 +33189,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667434</v>
@@ -33207,13 +33207,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S29" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T29" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U29" t="n">
         <v>0.1063787370334189</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H30" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I30" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J30" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K30" t="n">
         <v>114.8868877226589</v>
@@ -33283,10 +33283,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R30" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S30" t="n">
         <v>13.21525299468887</v>
@@ -33295,7 +33295,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H31" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I31" t="n">
         <v>17.9375695592222</v>
@@ -33344,25 +33344,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K31" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L31" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M31" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N31" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O31" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P31" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R31" t="n">
         <v>26.81959463117078</v>
@@ -33374,7 +33374,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I35" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J35" t="n">
         <v>112.8595291536268</v>
@@ -33663,13 +33663,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L35" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O35" t="n">
         <v>224.0452553667434</v>
@@ -33681,13 +33681,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R35" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S35" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T35" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U35" t="n">
         <v>0.1063787370334189</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H36" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I36" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J36" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K36" t="n">
         <v>114.8868877226589</v>
@@ -33757,10 +33757,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R36" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S36" t="n">
         <v>13.21525299468887</v>
@@ -33769,7 +33769,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H37" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I37" t="n">
         <v>17.9375695592222</v>
@@ -33818,25 +33818,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N37" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O37" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P37" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R37" t="n">
         <v>26.81959463117078</v>
@@ -33848,7 +33848,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I38" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -33900,13 +33900,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
         <v>224.0452553667434</v>
@@ -33918,13 +33918,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R38" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S38" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T38" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U38" t="n">
         <v>0.1063787370334189</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H39" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I39" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J39" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K39" t="n">
         <v>114.8868877226589</v>
@@ -33994,10 +33994,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R39" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S39" t="n">
         <v>13.21525299468887</v>
@@ -34006,7 +34006,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H40" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I40" t="n">
         <v>17.9375695592222</v>
@@ -34055,25 +34055,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L40" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M40" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O40" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R40" t="n">
         <v>26.81959463117078</v>
@@ -34085,7 +34085,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I41" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J41" t="n">
         <v>112.8595291536268</v>
@@ -34137,13 +34137,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N41" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
         <v>224.0452553667434</v>
@@ -34155,13 +34155,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R41" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S41" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T41" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U41" t="n">
         <v>0.1063787370334189</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H42" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I42" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J42" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K42" t="n">
         <v>114.8868877226589</v>
@@ -34231,10 +34231,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S42" t="n">
         <v>13.21525299468887</v>
@@ -34243,7 +34243,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H43" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I43" t="n">
         <v>17.9375695592222</v>
@@ -34292,25 +34292,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L43" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M43" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N43" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O43" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R43" t="n">
         <v>26.81959463117078</v>
@@ -34322,7 +34322,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I44" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536268</v>
@@ -34374,13 +34374,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667434</v>
@@ -34392,13 +34392,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S44" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T44" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U44" t="n">
         <v>0.1063787370334189</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H45" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I45" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J45" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K45" t="n">
         <v>114.8868877226589</v>
@@ -34468,10 +34468,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S45" t="n">
         <v>13.21525299468887</v>
@@ -34480,7 +34480,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H46" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I46" t="n">
         <v>17.9375695592222</v>
@@ -34529,25 +34529,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K46" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M46" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N46" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O46" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P46" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R46" t="n">
         <v>26.81959463117078</v>
@@ -34559,7 +34559,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.859529153627</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864345</v>
       </c>
       <c r="L17" t="n">
-        <v>209.8420318050157</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M17" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139918</v>
       </c>
       <c r="N17" t="n">
-        <v>237.2677999464443</v>
+        <v>237.267799946444</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667437</v>
       </c>
       <c r="P17" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q17" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
         <v>83.52891675219371</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.82274801921518</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J18" t="n">
-        <v>67.21836239872329</v>
+        <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -35974,16 +35974,16 @@
         <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
-        <v>185.041626288561</v>
+        <v>185.0416262885611</v>
       </c>
       <c r="O18" t="n">
-        <v>169.27693723799</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P18" t="n">
-        <v>153.1340173001363</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>418.1856318563246</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R18" t="n">
         <v>162.5299238926254</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570464</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K19" t="n">
-        <v>69.29931649542308</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
-        <v>162.1161581134699</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M19" t="n">
-        <v>418.1856318563247</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N19" t="n">
-        <v>418.1856318563247</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O19" t="n">
-        <v>418.1856318563246</v>
+        <v>278.8312227145761</v>
       </c>
       <c r="P19" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
         <v>169.1471783864346</v>
@@ -36129,13 +36129,13 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464439</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -36144,7 +36144,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82274801921518</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J21" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>114.8868877226589</v>
+        <v>131.691590439113</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
@@ -36214,13 +36214,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.6232914195054</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
         <v>162.5299238926254</v>
@@ -36284,25 +36284,25 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M22" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O22" t="n">
-        <v>262.2926534414109</v>
+        <v>278.8312227145759</v>
       </c>
       <c r="P22" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q22" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J23" t="n">
         <v>112.8595291536269</v>
@@ -36363,25 +36363,25 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L23" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M23" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N23" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O23" t="n">
-        <v>224.0452553667433</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P23" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q23" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R23" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K24" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L24" t="n">
         <v>154.4795984656607</v>
@@ -36451,13 +36451,13 @@
         <v>185.041626288561</v>
       </c>
       <c r="O24" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P24" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R24" t="n">
         <v>162.5299238926254</v>
@@ -36521,16 +36521,16 @@
         <v>346.8331089915197</v>
       </c>
       <c r="L25" t="n">
-        <v>266.6631737149102</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M25" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N25" t="n">
-        <v>91.27663494268052</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O25" t="n">
-        <v>84.30874592103589</v>
+        <v>262.2926534414115</v>
       </c>
       <c r="P25" t="n">
         <v>418.1856318563248</v>
@@ -36539,7 +36539,7 @@
         <v>219.8381709871101</v>
       </c>
       <c r="R25" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J26" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536272</v>
       </c>
       <c r="K26" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L26" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M26" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N26" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O26" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P26" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q26" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R26" t="n">
-        <v>83.52891675219394</v>
+        <v>83.52891675219371</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K27" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L27" t="n">
         <v>154.4795984656607</v>
@@ -36688,16 +36688,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O27" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P27" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R27" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K28" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L28" t="n">
-        <v>418.1856318563249</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M28" t="n">
-        <v>162.11615811347</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N28" t="n">
-        <v>418.1856318563248</v>
+        <v>238.6471248275245</v>
       </c>
       <c r="O28" t="n">
-        <v>418.1856318563248</v>
+        <v>84.30874592103601</v>
       </c>
       <c r="P28" t="n">
         <v>72.14069692136991</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R28" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488948</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J29" t="n">
-        <v>112.8595291536272</v>
+        <v>112.8595291536268</v>
       </c>
       <c r="K29" t="n">
-        <v>169.1471783864347</v>
+        <v>169.1471783864346</v>
       </c>
       <c r="L29" t="n">
         <v>209.8420318050158</v>
       </c>
       <c r="M29" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N29" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O29" t="n">
         <v>224.0452553667433</v>
@@ -36852,10 +36852,10 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q29" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R29" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J30" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K30" t="n">
-        <v>131.6915904391126</v>
+        <v>114.8868877226589</v>
       </c>
       <c r="L30" t="n">
         <v>154.4795984656607</v>
@@ -36925,16 +36925,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O30" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P30" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.818588703052</v>
+        <v>107.6232914195057</v>
       </c>
       <c r="R30" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,28 +36992,28 @@
         <v>129.6248678447853</v>
       </c>
       <c r="K31" t="n">
-        <v>69.29931649542311</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L31" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M31" t="n">
+        <v>93.49985245153209</v>
+      </c>
+      <c r="N31" t="n">
+        <v>91.27663494268052</v>
+      </c>
+      <c r="O31" t="n">
+        <v>262.2926534414112</v>
+      </c>
+      <c r="P31" t="n">
         <v>418.1856318563248</v>
       </c>
-      <c r="N31" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="O31" t="n">
-        <v>84.30874592103601</v>
-      </c>
-      <c r="P31" t="n">
-        <v>222.1085555543598</v>
-      </c>
       <c r="Q31" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R31" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>50.85195676437968</v>
       </c>
       <c r="J32" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K32" t="n">
         <v>169.1471783864346</v>
@@ -37077,7 +37077,7 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M32" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N32" t="n">
         <v>237.2677999464441</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>50.82274801921519</v>
+        <v>24.49580543289438</v>
       </c>
       <c r="J33" t="n">
-        <v>395.0550542837863</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K33" t="n">
-        <v>114.8868877226589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="L33" t="n">
         <v>154.4795984656607</v>
@@ -37165,10 +37165,10 @@
         <v>169.2769372379898</v>
       </c>
       <c r="P33" t="n">
-        <v>135.8596658518925</v>
+        <v>203.5292589060641</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.6232914195061</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R33" t="n">
         <v>162.5299238926254</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8331089915197</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L34" t="n">
-        <v>266.6631737149102</v>
+        <v>162.1161581134697</v>
       </c>
       <c r="M34" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N34" t="n">
-        <v>91.27663494268052</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O34" t="n">
-        <v>84.30874592103589</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="P34" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q34" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R34" t="n">
         <v>5.615951549488944</v>
@@ -37302,10 +37302,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J35" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K35" t="n">
         <v>169.1471783864346</v>
@@ -37314,19 +37314,19 @@
         <v>209.8420318050158</v>
       </c>
       <c r="M35" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N35" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O35" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P35" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q35" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R35" t="n">
         <v>83.52891675219394</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J36" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K36" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391124</v>
       </c>
       <c r="L36" t="n">
         <v>154.4795984656607</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K37" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L37" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="M37" t="n">
-        <v>93.49985245153209</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N37" t="n">
-        <v>212.9174490238637</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="O37" t="n">
-        <v>418.1856318563248</v>
+        <v>162.1161581134697</v>
       </c>
       <c r="P37" t="n">
-        <v>418.1856318563248</v>
+        <v>72.14069692136991</v>
       </c>
       <c r="Q37" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R37" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J38" t="n">
         <v>112.8595291536268</v>
@@ -37548,22 +37548,22 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L38" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M38" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N38" t="n">
         <v>237.2677999464441</v>
       </c>
       <c r="O38" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P38" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q38" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R38" t="n">
         <v>83.52891675219394</v>
@@ -37624,7 +37624,7 @@
         <v>395.0550542837863</v>
       </c>
       <c r="K39" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L39" t="n">
         <v>154.4795984656607</v>
@@ -37642,7 +37642,7 @@
         <v>135.8596658518925</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.6232914195059</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R39" t="n">
         <v>162.5299238926254</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>129.6248678447853</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K40" t="n">
-        <v>207.4786998497706</v>
+        <v>346.8331089915197</v>
       </c>
       <c r="L40" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="M40" t="n">
         <v>93.49985245153209</v>
       </c>
       <c r="N40" t="n">
-        <v>91.27663494268063</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O40" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P40" t="n">
-        <v>72.14069692136991</v>
+        <v>190.1322070008555</v>
       </c>
       <c r="Q40" t="n">
-        <v>219.8381709871103</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R40" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J41" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K41" t="n">
         <v>169.1471783864346</v>
       </c>
       <c r="L41" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M41" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N41" t="n">
-        <v>237.267799946444</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O41" t="n">
-        <v>224.0452553667435</v>
+        <v>224.0452553667433</v>
       </c>
       <c r="P41" t="n">
         <v>191.2174419853368</v>
       </c>
       <c r="Q41" t="n">
-        <v>143.5963354852204</v>
+        <v>143.5963354852202</v>
       </c>
       <c r="R41" t="n">
         <v>83.52891675219394</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>24.49580543289439</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J42" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K42" t="n">
-        <v>114.8868877226589</v>
+        <v>131.6915904391128</v>
       </c>
       <c r="L42" t="n">
-        <v>154.4795984656608</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M42" t="n">
         <v>180.2704050774914</v>
@@ -37873,16 +37873,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O42" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P42" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.3065755152604</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R42" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.17064040570466</v>
+        <v>42.17064040570465</v>
       </c>
       <c r="K43" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L43" t="n">
-        <v>162.1161581134699</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M43" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563247</v>
       </c>
       <c r="N43" t="n">
         <v>418.1856318563248</v>
@@ -37955,13 +37955,13 @@
         <v>418.1856318563248</v>
       </c>
       <c r="P43" t="n">
-        <v>72.14069692136991</v>
+        <v>145.5775888403052</v>
       </c>
       <c r="Q43" t="n">
         <v>49.9464792049564</v>
       </c>
       <c r="R43" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J44" t="n">
         <v>112.8595291536269</v>
       </c>
       <c r="K44" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L44" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050157</v>
       </c>
       <c r="M44" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N44" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O44" t="n">
         <v>224.0452553667435</v>
       </c>
       <c r="P44" t="n">
-        <v>191.2174419853366</v>
+        <v>191.2174419853368</v>
       </c>
       <c r="Q44" t="n">
         <v>143.5963354852204</v>
       </c>
       <c r="R44" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219348</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>24.49580543289438</v>
+        <v>50.82274801921519</v>
       </c>
       <c r="J45" t="n">
         <v>395.0550542837863</v>
@@ -38101,7 +38101,7 @@
         <v>114.8868877226589</v>
       </c>
       <c r="L45" t="n">
-        <v>154.4795984656608</v>
+        <v>154.4795984656607</v>
       </c>
       <c r="M45" t="n">
         <v>180.2704050774914</v>
@@ -38110,16 +38110,16 @@
         <v>185.041626288561</v>
       </c>
       <c r="O45" t="n">
-        <v>169.2769372379901</v>
+        <v>169.2769372379898</v>
       </c>
       <c r="P45" t="n">
         <v>135.8596658518925</v>
       </c>
       <c r="Q45" t="n">
-        <v>252.3065755152606</v>
+        <v>107.6232914195061</v>
       </c>
       <c r="R45" t="n">
-        <v>44.17358238319139</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K46" t="n">
-        <v>69.29931649542308</v>
+        <v>195.310650850105</v>
       </c>
       <c r="L46" t="n">
-        <v>88.67926619453442</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="M46" t="n">
-        <v>418.1856318563249</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N46" t="n">
-        <v>309.5627829934405</v>
+        <v>91.27663494268052</v>
       </c>
       <c r="O46" t="n">
         <v>84.30874592103589</v>
@@ -38195,10 +38195,10 @@
         <v>418.1856318563248</v>
       </c>
       <c r="Q46" t="n">
-        <v>219.8381709871103</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R46" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
